--- a/excel_routes/route_MED_CAI_threats.xlsx
+++ b/excel_routes/route_MED_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,36 +546,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>619</v>
+        <v>685</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-295</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,36 +591,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>749</v>
+        <v>685</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-165</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>966</v>
+        <v>685</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -681,40 +681,40 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>966</v>
+        <v>359</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>914</v>
+        <v>1691</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>52</v>
+        <v>-1332</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -726,40 +726,40 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>758</v>
+        <v>1691</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-309</v>
+        <v>-1302</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,12 +771,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>758</v>
+        <v>1691</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-219</v>
+        <v>-1232</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>20</v>
@@ -802,9 +802,9 @@
       <c r="I7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,36 +816,36 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>576</v>
+        <v>475</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>758</v>
+        <v>1691</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-182</v>
+        <v>-1216</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
@@ -861,27 +861,27 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>758</v>
+        <v>1691</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-92</v>
+        <v>-1096</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,27 +906,27 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>758</v>
+        <v>1691</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-92</v>
+        <v>-1096</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,40 +951,40 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>449</v>
+        <v>685</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>680</v>
+        <v>1691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-231</v>
+        <v>-1006</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,40 +996,40 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>576</v>
+        <v>769</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>680</v>
+        <v>1691</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-104</v>
+        <v>-922</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,27 +1041,27 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>666</v>
+        <v>875</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>680</v>
+        <v>1691</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-14</v>
+        <v>-816</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46</v>
@@ -1072,9 +1072,9 @@
       <c r="I13" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,27 +1086,27 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>666</v>
+        <v>1586</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>680</v>
+        <v>1691</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-14</v>
+        <v>-105</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>46</v>
@@ -1141,30 +1141,30 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>329</v>
+        <v>1802</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1362</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,12 +1176,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>389</v>
+        <v>609</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1302</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,40 +1221,40 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>389</v>
+        <v>685</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1302</v>
+        <v>185</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,40 +1266,40 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1281</v>
+        <v>185</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,40 +1311,40 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1281</v>
+        <v>-231</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1115</v>
+        <v>-45</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,27 +1401,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1115</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>46</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,40 +1446,40 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1025</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>761</v>
+        <v>685</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-930</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>46</v>
@@ -1522,9 +1522,9 @@
       <c r="I23" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,40 +1536,40 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1441</v>
+        <v>523</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-250</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1783</v>
+        <v>595</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1626,36 +1626,36 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>500</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,27 +1671,27 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>500</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>723</v>
+        <v>595</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>299</v>
+        <v>595</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>560</v>
+        <v>455</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-261</v>
+        <v>140</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>389</v>
+        <v>685</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-171</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,40 +1851,40 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>560</v>
+        <v>1691</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-119</v>
+        <v>-1362</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,40 +1896,40 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>560</v>
+        <v>1691</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-119</v>
+        <v>-1302</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,27 +1941,27 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>560</v>
+        <v>1691</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>16</v>
+        <v>-1096</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>46</v>
@@ -1972,9 +1972,9 @@
       <c r="I33" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,27 +1986,27 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>560</v>
+        <v>1691</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>106</v>
+        <v>-1096</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>46</v>
@@ -2017,9 +2017,9 @@
       <c r="I34" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,40 +2031,40 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4</v>
+        <v>-1042</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,12 +2076,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>76</v>
+        <v>-1006</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2107,9 +2107,9 @@
       <c r="I36" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2135,13 +2135,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>76</v>
+        <v>-1006</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2152,9 +2152,9 @@
       <c r="I37" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,27 +2166,27 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>504</v>
+        <v>837</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>455</v>
+        <v>1691</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>49</v>
+        <v>-854</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2197,9 +2197,9 @@
       <c r="I38" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,27 +2211,27 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>576</v>
+        <v>915</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>455</v>
+        <v>1691</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>121</v>
+        <v>-776</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>46</v>
@@ -2242,9 +2242,9 @@
       <c r="I39" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,27 +2256,27 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>576</v>
+        <v>915</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>455</v>
+        <v>1691</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>121</v>
+        <v>-776</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>46</v>
@@ -2287,9 +2287,9 @@
       <c r="I40" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2301,27 +2301,27 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>576</v>
+        <v>915</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>455</v>
+        <v>1691</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>121</v>
+        <v>-776</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>46</v>
@@ -2332,9 +2332,9 @@
       <c r="I41" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2405,29 +2405,2639 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="E43" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>649</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E46" s="2" t="n">
         <v>455</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="F46" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>668</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>668</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>15-FEB-26</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>668</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>SM-972</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-678</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>572</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>SM-972</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>16-FEB-26</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>SM-972</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>SM-496</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>SM-496</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>SM-496</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>SM-496</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>-499</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>329</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>-429</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-775</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>-399</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>-298</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>-298</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>-298</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>18-FEB-26</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>SM-954</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-678</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>-241</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>-537</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>-376</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>-376</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-676</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>-321</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-678</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>-319</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-793</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>-317</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>-317</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>-308</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>-308</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>-308</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-317</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>-308</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-241</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-775</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>419</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>-1272</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-676</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>-1176</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-696</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>-1176</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>-1176</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>-1163</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>-1142</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>-1096</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>-939</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>SM-984</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>-939</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>-537</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J87" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-793</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>-477</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>-477</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>-151</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J90" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-775</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>-655</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>609</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>-305</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>799</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J93" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>SM-496</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>689</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>329</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>-291</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-793</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J97" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>579</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>-41</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J99" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-317</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_CAI_threats.xlsx
+++ b/excel_routes/route_MED_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>515</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>461</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>46</v>
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3447</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>668</v>
+        <v>603</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>461</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -686,22 +686,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>515</v>
+        <v>603</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>423</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>46</v>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>461</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -906,27 +906,27 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>685</v>
+        <v>515</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>425</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,12 +996,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>46</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1491,40 +1491,40 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>590</v>
+        <v>329</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>758</v>
+        <v>836</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-168</v>
+        <v>-507</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,40 +1536,40 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>590</v>
+        <v>359</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>758</v>
+        <v>836</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-168</v>
+        <v>-477</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,36 +1581,36 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>668</v>
+        <v>460</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>758</v>
+        <v>836</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-90</v>
+        <v>-376</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-557</v>
+        <v>-376</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>329</v>
+        <v>515</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-507</v>
+        <v>-321</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>359</v>
+        <v>517</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-477</v>
+        <v>-319</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-376</v>
+        <v>-308</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>23</v>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-376</v>
+        <v>-308</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>23</v>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-321</v>
+        <v>-308</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-319</v>
+        <v>-308</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>23</v>
@@ -1986,36 +1986,36 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>674</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-162</v>
+        <v>-1392</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
@@ -2031,36 +2031,36 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>674</v>
+        <v>359</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-162</v>
+        <v>-1332</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
@@ -2076,36 +2076,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>674</v>
+        <v>389</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-162</v>
+        <v>-1302</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
@@ -2121,27 +2121,27 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>674</v>
+        <v>515</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-162</v>
+        <v>-1176</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2176,26 +2176,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1392</v>
+        <v>-1176</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1302</v>
+        <v>-1163</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1176</v>
+        <v>-1096</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>46</v>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1176</v>
+        <v>-1096</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>46</v>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1163</v>
+        <v>-1085</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>23</v>
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-1142</v>
+        <v>-1085</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J43" s="5" t="inlineStr">
         <is>
@@ -2436,40 +2436,40 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>595</v>
+        <v>299</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1691</v>
+        <v>836</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-1096</v>
+        <v>-537</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,40 +2481,40 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>595</v>
+        <v>359</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1691</v>
+        <v>836</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-1096</v>
+        <v>-477</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,40 +2526,40 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>752</v>
+        <v>359</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1691</v>
+        <v>836</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-939</v>
+        <v>-477</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,27 +2571,27 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>752</v>
+        <v>875</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1691</v>
+        <v>836</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-939</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>46</v>
@@ -2602,9 +2602,9 @@
       <c r="I47" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J47" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-537</v>
+        <v>-635</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>15</v>
@@ -2647,9 +2647,9 @@
       <c r="I48" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,26 +2671,26 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-477</v>
+        <v>-495</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-477</v>
+        <v>-386</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,30 +2761,30 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>875</v>
+        <v>609</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>39</v>
+        <v>-305</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2806,30 +2806,30 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>279</v>
+        <v>875</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>914</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-635</v>
+        <v>-39</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
@@ -2851,30 +2851,30 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>419</v>
+        <v>1120</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>914</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-495</v>
+        <v>206</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,30 +2896,30 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>914</v>
+        <v>680</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-386</v>
+        <v>-351</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,30 +2941,30 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>609</v>
+        <v>389</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>914</v>
+        <v>680</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,30 +2986,30 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>875</v>
+        <v>419</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>914</v>
+        <v>680</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-39</v>
+        <v>-261</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1120</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>46</v>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,26 +3076,26 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>329</v>
+        <v>798</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-351</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,26 +3121,26 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>389</v>
+        <v>798</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-291</v>
+        <v>178</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,36 +3156,36 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>419</v>
+        <v>668</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-261</v>
+        <v>108</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3201,27 +3201,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>915</v>
+        <v>780</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>46</v>
@@ -3246,36 +3246,36 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>299</v>
+        <v>780</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-321</v>
+        <v>220</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3291,36 +3291,36 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>389</v>
+        <v>780</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-231</v>
+        <v>220</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,36 +3336,36 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>389</v>
+        <v>798</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-231</v>
+        <v>238</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,26 +3391,26 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>780</v>
+        <v>359</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>220</v>
+        <v>-261</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>780</v>
+        <v>419</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>220</v>
+        <v>-201</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,26 +3481,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>780</v>
+        <v>459</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>220</v>
+        <v>-161</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3526,26 +3526,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>359</v>
+        <v>780</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-261</v>
+        <v>160</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3571,26 +3571,26 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>609</v>
+        <v>780</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-11</v>
+        <v>160</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
@@ -3616,26 +3616,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>649</v>
+        <v>780</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>780</v>
+        <v>329</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>160</v>
+        <v>-291</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>780</v>
+        <v>359</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>160</v>
+        <v>-261</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,26 +3751,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>780</v>
+        <v>359</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>160</v>
+        <v>-261</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>46</v>
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>329</v>
+        <v>780</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-291</v>
+        <v>160</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3886,26 +3886,26 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>359</v>
+        <v>780</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-261</v>
+        <v>160</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
@@ -3931,30 +3931,30 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>549</v>
+        <v>837</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-71</v>
+        <v>217</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,26 +3976,26 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>780</v>
+        <v>689</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4028,10 +4028,10 @@
         <v>780</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4073,10 +4073,10 @@
         <v>780</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>46</v>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,17 +4111,17 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>837</v>
+        <v>798</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>46</v>
@@ -4156,26 +4156,26 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>689</v>
+        <v>798</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J82" s="3" t="inlineStr">
         <is>
@@ -4191,27 +4191,27 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
         <v>780</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>46</v>
@@ -4236,27 +4236,27 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
         <v>780</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>46</v>
@@ -4281,27 +4281,27 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>46</v>
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,26 +4336,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>798</v>
+        <v>449</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>238</v>
+        <v>-309</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4371,27 +4371,27 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
         <v>689</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>69</v>
+        <v>-69</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>40</v>
@@ -4402,9 +4402,9 @@
       <c r="I87" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J87" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -4416,36 +4416,36 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>119</v>
+        <v>-29</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4461,12 +4461,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -4475,13 +4475,13 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>780</v>
+        <v>985</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>46</v>
@@ -4506,12 +4506,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -4520,13 +4520,13 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>780</v>
+        <v>985</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>46</v>
@@ -4551,12 +4551,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -4565,13 +4565,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>780</v>
+        <v>985</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>46</v>
@@ -4596,7 +4596,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-339</v>
+        <v>-639</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>15</v>
@@ -4627,9 +4627,9 @@
       <c r="I92" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J92" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J92" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4658,10 +4658,10 @@
         <v>499</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-259</v>
+        <v>-589</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>20</v>
@@ -4672,9 +4672,9 @@
       <c r="I93" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J93" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J93" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
@@ -4686,7 +4686,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-219</v>
+        <v>-589</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>20</v>
@@ -4717,9 +4717,9 @@
       <c r="I94" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J94" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J94" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4741,26 +4741,26 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>985</v>
+        <v>614</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>227</v>
+        <v>-474</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,26 +4786,26 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>985</v>
+        <v>614</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>227</v>
+        <v>-474</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
         <v>985</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>227</v>
+        <v>-103</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>46</v>
@@ -4852,9 +4852,9 @@
       <c r="I97" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4876,30 +4876,30 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>689</v>
+        <v>985</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-399</v>
+        <v>-103</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J98" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4921,30 +4921,30 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>689</v>
+        <v>985</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-399</v>
+        <v>-103</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J99" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -4966,17 +4966,17 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>739</v>
+        <v>1120</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-349</v>
+        <v>32</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>46</v>
@@ -4987,9 +4987,9 @@
       <c r="I100" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J100" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J100" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
@@ -5001,7 +5001,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -5011,17 +5011,17 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
         <v>739</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-349</v>
+        <v>-253</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>46</v>
@@ -5046,7 +5046,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-289</v>
+        <v>-213</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>40</v>
@@ -5077,9 +5077,9 @@
       <c r="I102" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J102" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J102" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
@@ -5091,7 +5091,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5101,17 +5101,17 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>985</v>
+        <v>781</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-103</v>
+        <v>-211</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>46</v>
@@ -5122,9 +5122,9 @@
       <c r="I103" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J103" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J103" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5136,7 +5136,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5146,26 +5146,26 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>985</v>
+        <v>799</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-103</v>
+        <v>-193</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J104" s="4" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -5191,26 +5191,26 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>985</v>
+        <v>799</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-103</v>
+        <v>-193</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J105" s="4" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -5236,17 +5236,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1120</v>
+        <v>985</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1088</v>
+        <v>992</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>32</v>
+        <v>-7</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>46</v>
@@ -5281,26 +5281,26 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>559</v>
+        <v>985</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-433</v>
+        <v>-7</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J107" s="4" t="inlineStr">
         <is>
@@ -5326,26 +5326,26 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>559</v>
+        <v>985</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-433</v>
+        <v>-7</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J108" s="4" t="inlineStr">
         <is>
@@ -5371,30 +5371,30 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>589</v>
+        <v>1042</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-403</v>
+        <v>50</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J109" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
@@ -5416,17 +5416,17 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-7</v>
+        <v>56</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>46</v>
@@ -5437,9 +5437,9 @@
       <c r="I110" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J110" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J110" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
@@ -5465,13 +5465,13 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-7</v>
+        <v>128</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>46</v>
@@ -5482,9 +5482,9 @@
       <c r="I111" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J111" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J111" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,17 +5506,17 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>46</v>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,17 +5551,17 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>46</v>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,26 +5596,26 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>1042</v>
+        <v>1249</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>1120</v>
+        <v>1260</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>1184</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-64</v>
+        <v>76</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>46</v>
@@ -5662,9 +5662,9 @@
       <c r="I115" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J115" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>1120</v>
+        <v>1260</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>1184</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-64</v>
+        <v>76</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>46</v>
@@ -5707,9 +5707,9 @@
       <c r="I116" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J116" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
@@ -5731,26 +5731,26 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>1249</v>
+        <v>1317</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>1184</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>1260</v>
+        <v>1120</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>1184</v>
+        <v>1088</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>46</v>
@@ -5797,9 +5797,9 @@
       <c r="I118" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J118" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J118" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
@@ -5816,22 +5816,22 @@
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>1260</v>
+        <v>1120</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>1184</v>
+        <v>1088</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>46</v>
@@ -5842,9 +5842,9 @@
       <c r="I119" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J119" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>1317</v>
+        <v>1260</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>1184</v>
+        <v>1088</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>46</v>
@@ -5911,17 +5911,17 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>1120</v>
+        <v>1260</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>46</v>
@@ -5932,9 +5932,9 @@
       <c r="I121" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J121" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K121" s="2" t="inlineStr">
@@ -5956,17 +5956,17 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>1120</v>
+        <v>1317</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>46</v>
@@ -5977,9 +5977,9 @@
       <c r="I122" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J122" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K122" s="2" t="inlineStr">
@@ -5991,36 +5991,36 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>1260</v>
+        <v>1299</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>1088</v>
+        <v>1472</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>172</v>
+        <v>-173</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
@@ -6036,36 +6036,36 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1260</v>
+        <v>1299</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>1088</v>
+        <v>1472</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>172</v>
+        <v>-173</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
@@ -6081,40 +6081,40 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1088</v>
+        <v>1691</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>229</v>
+        <v>-392</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J125" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
@@ -6131,35 +6131,35 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>1489</v>
+        <v>1299</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>1472</v>
+        <v>1691</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>17</v>
+        <v>-392</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J126" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6176,31 +6176,31 @@
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1489</v>
+        <v>1745</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>1472</v>
+        <v>1691</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
@@ -6221,31 +6221,31 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1527</v>
+        <v>1745</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>1472</v>
+        <v>1691</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J128" s="3" t="inlineStr">
         <is>
@@ -6271,30 +6271,30 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1489</v>
+        <v>1745</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-202</v>
+        <v>54</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J129" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6316,30 +6316,30 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1489</v>
+        <v>1745</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-202</v>
+        <v>54</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J130" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
@@ -6361,30 +6361,30 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>1527</v>
+        <v>1802</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-164</v>
+        <v>111</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J131" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,36 +6396,36 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1745</v>
+        <v>1059</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>54</v>
+        <v>-239</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J132" s="3" t="inlineStr">
         <is>
@@ -6441,36 +6441,36 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>1745</v>
+        <v>1059</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>54</v>
+        <v>-239</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J133" s="3" t="inlineStr">
         <is>
@@ -6486,27 +6486,27 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1745</v>
+        <v>652</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>1691</v>
+        <v>455</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>46</v>
@@ -6531,27 +6531,27 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>1745</v>
+        <v>595</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>1691</v>
+        <v>425</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>46</v>
@@ -6576,27 +6576,27 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1802</v>
+        <v>595</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>1691</v>
+        <v>425</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>46</v>
@@ -6621,7 +6621,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -6631,26 +6631,26 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1059</v>
+        <v>595</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1298</v>
+        <v>425</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-239</v>
+        <v>170</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J137" s="3" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -6676,26 +6676,26 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1059</v>
+        <v>515</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-239</v>
+        <v>149</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J138" s="3" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -6721,26 +6721,26 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1059</v>
+        <v>515</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-239</v>
+        <v>149</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6766,17 +6766,17 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>46</v>
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,17 +6811,17 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>46</v>
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>46</v>
@@ -6891,7 +6891,7 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -6901,17 +6901,17 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>46</v>
@@ -6936,7 +6936,7 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>15-APR-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -6946,17 +6946,17 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>46</v>
@@ -6981,7 +6981,7 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -6991,17 +6991,17 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>46</v>
@@ -7026,7 +7026,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -7036,17 +7036,17 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>46</v>
@@ -7071,7 +7071,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -7081,17 +7081,17 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>46</v>
@@ -7116,7 +7116,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -7126,17 +7126,17 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>46</v>
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -7171,17 +7171,17 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>46</v>
@@ -7206,7 +7206,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -7341,7 +7341,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -7378,816 +7378,6 @@
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>14-APR-26</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E154" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F154" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G154" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H154" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I154" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J154" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>14-APR-26</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="E155" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F155" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="G155" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H155" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I155" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J155" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E156" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F156" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G156" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H156" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I156" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J156" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E157" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F157" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G157" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H157" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I157" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J157" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-640</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="E158" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F158" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="G158" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H158" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I158" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J158" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>16-APR-26</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-676</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="n">
-        <v>515</v>
-      </c>
-      <c r="E159" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F159" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="G159" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H159" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I159" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J159" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
-        <is>
-          <t>16-APR-26</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>515</v>
-      </c>
-      <c r="E160" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F160" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="G160" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H160" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I160" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J160" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>21-APR-26</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E161" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F161" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G161" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H161" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I161" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J161" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>21-APR-26</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E162" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F162" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G162" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H162" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I162" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J162" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>22-APR-26</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E163" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F163" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G163" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H163" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I163" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J163" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>22-APR-26</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E164" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F164" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G164" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H164" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I164" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J164" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>22-APR-26</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E165" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F165" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G165" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H165" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I165" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J165" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>23-APR-26</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E166" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F166" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G166" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H166" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I166" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J166" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>23-APR-26</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E167" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F167" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G167" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H167" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I167" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J167" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>23-APR-26</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E168" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F168" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G168" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H168" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I168" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J168" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>27-APR-26</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E169" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F169" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G169" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H169" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I169" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J169" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>27-APR-26</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E170" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F170" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G170" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H170" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I170" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J170" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>27-APR-26</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E171" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="F171" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="G171" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H171" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I171" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J171" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_CAI_threats.xlsx
+++ b/excel_routes/route_MED_CAI_threats.xlsx
@@ -54,14 +54,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>461</v>
+        <v>614</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>685</v>
+        <v>798</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>461</v>
+        <v>614</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>46</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>329</v>
+        <v>806</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>614</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-285</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,12 +681,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>780</v>
+        <v>613</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>614</v>
+        <v>461</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -726,27 +726,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>461</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>46</v>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>461</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>685</v>
+        <v>533</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,36 +861,36 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,27 +906,27 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -951,27 +951,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1041,36 +1041,36 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>460</v>
+        <v>703</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>758</v>
+        <v>512</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-298</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,36 +1086,36 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-298</v>
+        <v>167</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1131,36 +1131,36 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-298</v>
+        <v>167</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-243</v>
+        <v>224</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,36 +1221,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>758</v>
+        <v>425</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-241</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,27 +1266,27 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>758</v>
+        <v>425</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-168</v>
+        <v>108</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>46</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,27 +1311,27 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-168</v>
+        <v>167</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>46</v>
@@ -1342,9 +1342,9 @@
       <c r="I19" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,36 +1356,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>279</v>
+        <v>533</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-341</v>
+        <v>167</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1401,36 +1401,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-160</v>
+        <v>167</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,36 +1446,36 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-160</v>
+        <v>224</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-160</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,12 +1536,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-105</v>
+        <v>167</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>46</v>
@@ -1567,9 +1567,9 @@
       <c r="I24" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,40 +1581,40 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-101</v>
+        <v>224</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,30 +1636,30 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-71</v>
+        <v>224</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>674</v>
+        <v>533</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>674</v>
+        <v>537</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>54</v>
+        <v>-23</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>674</v>
+        <v>609</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>515</v>
+        <v>798</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1176</v>
+        <v>238</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>46</v>
@@ -1882,9 +1882,9 @@
       <c r="I31" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,40 +1896,40 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>595</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1691</v>
+        <v>758</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1096</v>
+        <v>-399</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,40 +1941,40 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>595</v>
+        <v>419</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1691</v>
+        <v>758</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1096</v>
+        <v>-339</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,40 +1986,40 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1691</v>
+        <v>758</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1096</v>
+        <v>-299</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,27 +2031,27 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1691</v>
+        <v>758</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1085</v>
+        <v>-106</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>23</v>
@@ -2062,9 +2062,9 @@
       <c r="I35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,12 +2076,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>674</v>
+        <v>798</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1691</v>
+        <v>680</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1017</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2107,9 +2107,9 @@
       <c r="I36" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,27 +2121,27 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>752</v>
+        <v>893</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1691</v>
+        <v>680</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-939</v>
+        <v>213</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2152,9 +2152,9 @@
       <c r="I37" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>299</v>
+        <v>893</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>836</v>
+        <v>680</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-537</v>
+        <v>213</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,40 +2211,40 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>359</v>
+        <v>798</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>836</v>
+        <v>560</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-477</v>
+        <v>238</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,40 +2256,40 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>389</v>
+        <v>798</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>836</v>
+        <v>560</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-447</v>
+        <v>238</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2301,40 +2301,40 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>528</v>
+        <v>798</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-386</v>
+        <v>238</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>875</v>
+        <v>389</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-39</v>
+        <v>-231</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1120</v>
+        <v>419</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>206</v>
+        <v>-201</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2436,36 +2436,36 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>279</v>
+        <v>798</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-281</v>
+        <v>178</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2481,36 +2481,36 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>519</v>
+        <v>798</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-41</v>
+        <v>178</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>579</v>
+        <v>798</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>758</v>
+        <v>620</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-179</v>
+        <v>178</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,30 +2581,30 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>609</v>
+        <v>798</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-149</v>
+        <v>118</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J47" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>389</v>
+        <v>798</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-231</v>
+        <v>118</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,26 +2671,26 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>579</v>
+        <v>798</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-41</v>
+        <v>118</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
@@ -2706,27 +2706,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>780</v>
+        <v>855</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>46</v>
@@ -2751,27 +2751,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>780</v>
+        <v>893</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>46</v>
@@ -2796,27 +2796,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>46</v>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,26 +2851,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>359</v>
+        <v>798</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-261</v>
+        <v>178</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>419</v>
+        <v>798</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-201</v>
+        <v>178</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,26 +2941,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>459</v>
+        <v>798</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-161</v>
+        <v>178</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,17 +2986,17 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>46</v>
@@ -3021,27 +3021,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>46</v>
@@ -3066,27 +3066,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>46</v>
@@ -3111,36 +3111,36 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>329</v>
+        <v>798</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-291</v>
+        <v>178</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,30 +3166,30 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-261</v>
+        <v>-639</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-231</v>
+        <v>-589</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>20</v>
@@ -3232,9 +3232,9 @@
       <c r="I61" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,30 +3256,30 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>780</v>
+        <v>539</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>160</v>
+        <v>-549</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>780</v>
+        <v>902</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>160</v>
+        <v>-186</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>780</v>
+        <v>1003</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>160</v>
+        <v>-85</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>46</v>
@@ -3367,9 +3367,9 @@
       <c r="I64" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,17 +3391,17 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>837</v>
+        <v>1003</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>217</v>
+        <v>-85</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>46</v>
@@ -3412,9 +3412,9 @@
       <c r="I65" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,30 +3436,30 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>689</v>
+        <v>1003</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>560</v>
+        <v>1088</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>129</v>
+        <v>-85</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>780</v>
+        <v>1048</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>560</v>
+        <v>1088</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>220</v>
+        <v>-40</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3502,9 +3502,9 @@
       <c r="I67" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,17 +3526,17 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>780</v>
+        <v>1138</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>560</v>
+        <v>1088</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>46</v>
@@ -3561,36 +3561,36 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>329</v>
+        <v>1195</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-291</v>
+        <v>107</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
@@ -3606,40 +3606,40 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>160</v>
+        <v>-309</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,40 +3651,40 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>160</v>
+        <v>-291</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3696,40 +3696,40 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>620</v>
+        <v>1088</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>160</v>
+        <v>-289</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J72" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,30 +3751,30 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>449</v>
+        <v>1003</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-309</v>
+        <v>-85</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,30 +3796,30 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>499</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-259</v>
+        <v>-85</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,30 +3841,30 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>539</v>
+        <v>1003</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-219</v>
+        <v>-85</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3886,17 +3886,17 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>915</v>
+        <v>1048</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>157</v>
+        <v>-40</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>46</v>
@@ -3907,9 +3907,9 @@
       <c r="I76" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J76" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,17 +3931,17 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>227</v>
+        <v>-40</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>46</v>
@@ -3952,9 +3952,9 @@
       <c r="I77" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J77" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,17 +3976,17 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>227</v>
+        <v>-40</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>46</v>
@@ -3997,9 +3997,9 @@
       <c r="I78" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J78" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,17 +4021,17 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>985</v>
+        <v>1138</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,30 +4066,30 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>359</v>
+        <v>1195</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-729</v>
+        <v>107</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
@@ -4101,40 +4101,40 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>499</v>
+        <v>999</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-589</v>
+        <v>-299</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
@@ -4146,40 +4146,40 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>499</v>
+        <v>1278</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-589</v>
+        <v>-20</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J82" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4191,40 +4191,40 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>902</v>
+        <v>1278</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-186</v>
+        <v>-20</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J83" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
@@ -4236,40 +4236,40 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>902</v>
+        <v>1278</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-186</v>
+        <v>-20</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,30 +4291,30 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>985</v>
+        <v>1527</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1088</v>
+        <v>1472</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-103</v>
+        <v>55</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J85" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J85" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>985</v>
+        <v>590</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1088</v>
+        <v>425</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-103</v>
+        <v>165</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>46</v>
@@ -4357,9 +4357,9 @@
       <c r="I86" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J86" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
@@ -4371,7 +4371,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>985</v>
+        <v>613</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1088</v>
+        <v>425</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-103</v>
+        <v>188</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>46</v>
@@ -4402,9 +4402,9 @@
       <c r="I87" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J87" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1120</v>
+        <v>613</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1088</v>
+        <v>425</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>46</v>
@@ -4447,9 +4447,9 @@
       <c r="I88" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J88" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1120</v>
+        <v>533</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1088</v>
+        <v>366</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>46</v>
@@ -4492,9 +4492,9 @@
       <c r="I89" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J89" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,30 +4516,30 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>359</v>
+        <v>533</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-633</v>
+        <v>167</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J90" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
@@ -4551,7 +4551,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4561,30 +4561,30 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>779</v>
+        <v>533</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-213</v>
+        <v>167</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J91" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J91" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>799</v>
+        <v>590</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-193</v>
+        <v>224</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J92" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4651,17 +4651,17 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>985</v>
+        <v>590</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-7</v>
+        <v>224</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>46</v>
@@ -4672,9 +4672,9 @@
       <c r="I93" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J93" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
@@ -4686,7 +4686,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>985</v>
+        <v>590</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-7</v>
+        <v>224</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>46</v>
@@ -4717,9 +4717,9 @@
       <c r="I94" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J94" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4741,17 +4741,17 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>985</v>
+        <v>533</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-7</v>
+        <v>167</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>46</v>
@@ -4762,9 +4762,9 @@
       <c r="I95" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J95" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1042</v>
+        <v>590</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>46</v>
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>992</v>
+        <v>366</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>46</v>
@@ -4866,36 +4866,36 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>999</v>
+        <v>590</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-299</v>
+        <v>224</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
@@ -4911,27 +4911,27 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-178</v>
+        <v>224</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>46</v>
@@ -4942,9 +4942,9 @@
       <c r="I99" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J99" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J99" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -4956,27 +4956,27 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1260</v>
+        <v>590</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-38</v>
+        <v>224</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>46</v>
@@ -4987,9 +4987,9 @@
       <c r="I100" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J100" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
@@ -5001,27 +5001,27 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1260</v>
+        <v>590</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-38</v>
+        <v>224</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>46</v>
@@ -5032,9 +5032,9 @@
       <c r="I101" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J101" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5056,26 +5056,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1299</v>
+        <v>590</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1472</v>
+        <v>366</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-173</v>
+        <v>224</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5091,40 +5091,40 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1299</v>
+        <v>590</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-392</v>
+        <v>224</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J103" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J103" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5136,36 +5136,36 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>1399</v>
+        <v>590</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-292</v>
+        <v>224</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5181,27 +5181,27 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1745</v>
+        <v>590</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>46</v>
@@ -5226,27 +5226,27 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1745</v>
+        <v>590</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>46</v>
@@ -5271,27 +5271,27 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1745</v>
+        <v>590</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>46</v>
@@ -5316,27 +5316,27 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1745</v>
+        <v>590</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>46</v>
@@ -5361,27 +5361,27 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>1745</v>
+        <v>590</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1691</v>
+        <v>366</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>46</v>
@@ -5406,7 +5406,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -5416,26 +5416,26 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>1059</v>
+        <v>590</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-239</v>
+        <v>224</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J110" s="3" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,26 +5461,26 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1059</v>
+        <v>590</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1298</v>
+        <v>366</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-239</v>
+        <v>224</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J111" s="3" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,17 +5506,17 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>46</v>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,17 +5551,17 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>46</v>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>29-APR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>46</v>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>46</v>
@@ -5662,9 +5662,9 @@
       <c r="I115" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J115" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>46</v>
@@ -5707,9 +5707,9 @@
       <c r="I116" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J116" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J116" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>46</v>
@@ -5752,9 +5752,9 @@
       <c r="I117" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J117" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J117" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K117" s="2" t="inlineStr">
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,26 +5776,26 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,17 +5821,17 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>46</v>
@@ -5842,9 +5842,9 @@
       <c r="I119" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J119" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>46</v>
@@ -5887,9 +5887,9 @@
       <c r="I120" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J120" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>16-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,26 +5911,26 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>515</v>
+        <v>609</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>16-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,26 +5956,26 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>20-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,17 +6001,17 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>515</v>
+        <v>668</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>46</v>
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
         <v>590</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>46</v>
@@ -6067,9 +6067,9 @@
       <c r="I124" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J124" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
         <v>590</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>46</v>
@@ -6112,9 +6112,9 @@
       <c r="I125" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J125" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6143,10 +6143,10 @@
         <v>590</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>46</v>
@@ -6157,9 +6157,9 @@
       <c r="I126" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J126" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>29-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6188,10 +6188,10 @@
         <v>590</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>46</v>
@@ -6202,9 +6202,9 @@
       <c r="I127" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J127" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>06-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6233,10 +6233,10 @@
         <v>590</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>46</v>
@@ -6247,9 +6247,9 @@
       <c r="I128" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J128" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>07-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,17 +6271,17 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
         <v>590</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>46</v>
@@ -6292,9 +6292,9 @@
       <c r="I129" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J129" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J129" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6306,7 +6306,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>07-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6316,26 +6316,26 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>366</v>
+        <v>914</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>224</v>
+        <v>-504</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="J130" s="3" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>07-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -6361,30 +6361,30 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>590</v>
+        <v>799</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>366</v>
+        <v>914</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>224</v>
+        <v>-115</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6406,17 +6406,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>590</v>
+        <v>1138</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>46</v>
@@ -6427,9 +6427,9 @@
       <c r="I132" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J132" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J132" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
@@ -6441,7 +6441,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -6451,17 +6451,17 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>590</v>
+        <v>1138</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>46</v>
@@ -6472,9 +6472,9 @@
       <c r="I133" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J133" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J133" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6496,26 +6496,26 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>609</v>
+        <v>1138</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J134" s="3" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6548,10 +6548,10 @@
         <v>590</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>30</v>
+        <v>-324</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>46</v>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="J135" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,7 +6576,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -6590,13 +6590,13 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>30</v>
+        <v>-246</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>46</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="J136" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
@@ -6621,7 +6621,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -6631,17 +6631,17 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>590</v>
+        <v>798</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>30</v>
+        <v>-116</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>46</v>
@@ -6652,7 +6652,7 @@
       <c r="I137" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J137" s="5" t="inlineStr">
+      <c r="J137" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6666,7 +6666,7 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -6676,28 +6676,28 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>590</v>
+        <v>799</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>30</v>
+        <v>-115</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J138" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J138" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6711,7 +6711,7 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -6725,13 +6725,13 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>798</v>
+        <v>590</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>560</v>
+        <v>914</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>238</v>
+        <v>-324</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>46</v>
@@ -6742,9 +6742,9 @@
       <c r="I139" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J139" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J139" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
@@ -6756,7 +6756,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>914</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-504</v>
+        <v>-324</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J140" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J140" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,30 +6811,30 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>914</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-295</v>
+        <v>-324</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J141" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J141" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>206</v>
+        <v>-708</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>46</v>
@@ -6877,9 +6877,9 @@
       <c r="I142" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J142" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J142" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K142" s="2" t="inlineStr">
@@ -6891,7 +6891,7 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -6901,17 +6901,17 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>206</v>
+        <v>-708</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>46</v>
@@ -6922,507 +6922,12 @@
       <c r="I143" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J143" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J143" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K143" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="G144" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H144" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I144" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J144" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-640</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E145" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="G145" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H145" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I145" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J145" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E146" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F146" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G146" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H146" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I146" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J146" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-771</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="E147" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F147" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G147" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H147" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I147" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J147" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>668</v>
-      </c>
-      <c r="E148" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F148" s="2" t="n">
-        <v>-246</v>
-      </c>
-      <c r="G148" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H148" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I148" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J148" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>798</v>
-      </c>
-      <c r="E149" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F149" s="2" t="n">
-        <v>-116</v>
-      </c>
-      <c r="G149" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H149" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I149" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J149" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="n">
-        <v>410</v>
-      </c>
-      <c r="E150" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F150" s="2" t="n">
-        <v>-504</v>
-      </c>
-      <c r="G150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I150" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J150" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>410</v>
-      </c>
-      <c r="E151" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F151" s="2" t="n">
-        <v>-504</v>
-      </c>
-      <c r="G151" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I151" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J151" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>410</v>
-      </c>
-      <c r="E152" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F152" s="2" t="n">
-        <v>-504</v>
-      </c>
-      <c r="G152" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I152" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J152" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>28-MAY-26</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E153" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F153" s="2" t="n">
-        <v>-708</v>
-      </c>
-      <c r="G153" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H153" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I153" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J153" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>28-MAY-26</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E154" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F154" s="2" t="n">
-        <v>-708</v>
-      </c>
-      <c r="G154" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H154" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I154" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J154" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_CAI_threats.xlsx
+++ b/excel_routes/route_MED_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,12 +546,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -591,27 +591,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>798</v>
+        <v>613</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>46</v>
@@ -636,27 +636,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>806</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -726,36 +726,36 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>152</v>
+        <v>-26</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>613</v>
+        <v>756</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46</v>
@@ -1086,27 +1086,27 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>533</v>
+        <v>760</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>366</v>
+        <v>563</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>46</v>
@@ -1131,36 +1131,36 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-972</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1221,27 +1221,27 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>533</v>
+        <v>703</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>46</v>
@@ -1266,36 +1266,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>425</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
         <v>533</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>46</v>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
         <v>533</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1401,36 +1401,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-972</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-954</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>46</v>
@@ -1491,17 +1491,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1536,36 +1536,36 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1626,27 +1626,27 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1671,27 +1671,27 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-954</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-23</v>
+        <v>167</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>689</v>
+        <v>563</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>798</v>
+        <v>563</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>46</v>
@@ -1896,36 +1896,36 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-399</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,36 +1941,36 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-339</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,36 +1986,36 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>459</v>
+        <v>563</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-299</v>
+        <v>197</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2031,36 +2031,36 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>758</v>
+        <v>366</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-106</v>
+        <v>224</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>798</v>
+        <v>533</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>680</v>
+        <v>366</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>893</v>
+        <v>590</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>680</v>
+        <v>366</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,17 +2176,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>893</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>680</v>
+        <v>425</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2211,27 +2211,27 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>798</v>
+        <v>613</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>560</v>
+        <v>425</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>46</v>
@@ -2256,36 +2256,36 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>798</v>
+        <v>689</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,27 +2301,27 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
         <v>798</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>46</v>
@@ -2332,9 +2332,9 @@
       <c r="I41" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>389</v>
+        <v>798</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-231</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,30 +2401,30 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>419</v>
+        <v>798</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-201</v>
+        <v>40</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,26 +2446,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>798</v>
+        <v>419</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>178</v>
+        <v>-261</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,26 +2491,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>798</v>
+        <v>449</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>178</v>
+        <v>-231</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>178</v>
+        <v>-181</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,17 +2581,17 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>680</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>46</v>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
         <v>798</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>46</v>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,17 +2671,17 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
         <v>798</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>46</v>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>46</v>
@@ -2751,27 +2751,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>893</v>
+        <v>798</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>46</v>
@@ -2796,27 +2796,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>668</v>
+        <v>798</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>46</v>
@@ -2841,17 +2841,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>798</v>
+        <v>567</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>178</v>
+        <v>-53</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -3021,17 +3021,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -3066,36 +3066,36 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>178</v>
+        <v>-181</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,36 +3111,36 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>178</v>
+        <v>-181</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,30 +3166,30 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>449</v>
+        <v>798</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-639</v>
+        <v>118</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,30 +3211,30 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>499</v>
+        <v>798</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-589</v>
+        <v>118</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,30 +3256,30 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>539</v>
+        <v>798</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-549</v>
+        <v>118</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>902</v>
+        <v>799</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-186</v>
+        <v>119</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1003</v>
+        <v>893</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-85</v>
+        <v>213</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>46</v>
@@ -3367,9 +3367,9 @@
       <c r="I64" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J64" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,30 +3391,30 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1003</v>
+        <v>597</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-85</v>
+        <v>-83</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J65" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,30 +3436,30 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1003</v>
+        <v>627</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-85</v>
+        <v>-53</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J66" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,30 +3481,30 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1048</v>
+        <v>779</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-40</v>
+        <v>99</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J67" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,17 +3526,17 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1138</v>
+        <v>798</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>46</v>
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1195</v>
+        <v>798</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>46</v>
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,30 +3616,30 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-309</v>
+        <v>118</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J70" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,30 +3661,30 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>797</v>
+        <v>893</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-291</v>
+        <v>213</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3710,26 +3710,26 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>799</v>
+        <v>389</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1088</v>
+        <v>620</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-289</v>
+        <v>-231</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J72" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3755,13 +3755,13 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1003</v>
+        <v>798</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1088</v>
+        <v>620</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-85</v>
+        <v>178</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>46</v>
@@ -3772,9 +3772,9 @@
       <c r="I73" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1003</v>
+        <v>798</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1088</v>
+        <v>620</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-85</v>
+        <v>178</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>46</v>
@@ -3817,9 +3817,9 @@
       <c r="I74" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1003</v>
+        <v>798</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1088</v>
+        <v>620</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-85</v>
+        <v>178</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>46</v>
@@ -3862,9 +3862,9 @@
       <c r="I75" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3876,40 +3876,40 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1048</v>
+        <v>389</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-40</v>
+        <v>-291</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -3921,27 +3921,27 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1048</v>
+        <v>798</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-40</v>
+        <v>118</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>46</v>
@@ -3952,9 +3952,9 @@
       <c r="I77" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,27 +3966,27 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1048</v>
+        <v>798</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-40</v>
+        <v>118</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>46</v>
@@ -3997,9 +3997,9 @@
       <c r="I78" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J78" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
@@ -4011,27 +4011,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1138</v>
+        <v>798</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4056,27 +4056,27 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1195</v>
+        <v>893</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1088</v>
+        <v>680</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>46</v>
@@ -4101,12 +4101,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1298</v>
+        <v>758</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-299</v>
+        <v>-309</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>15</v>
@@ -4146,40 +4146,40 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1278</v>
+        <v>589</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1298</v>
+        <v>758</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-20</v>
+        <v>-169</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J82" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4191,40 +4191,40 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1278</v>
+        <v>779</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1298</v>
+        <v>1088</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-20</v>
+        <v>-309</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J83" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J83" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
@@ -4236,40 +4236,40 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-496</t>
+          <t>SM-494</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1278</v>
+        <v>799</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1298</v>
+        <v>1088</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-20</v>
+        <v>-289</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J84" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J84" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1527</v>
+        <v>829</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1472</v>
+        <v>1088</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>55</v>
+        <v>-259</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>40</v>
@@ -4312,9 +4312,9 @@
       <c r="I85" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J85" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J85" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>590</v>
+        <v>1003</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>425</v>
+        <v>1088</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>165</v>
+        <v>-85</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>46</v>
@@ -4357,9 +4357,9 @@
       <c r="I86" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J86" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
@@ -4371,7 +4371,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4381,17 +4381,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>613</v>
+        <v>1003</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>425</v>
+        <v>1088</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>188</v>
+        <v>-85</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>46</v>
@@ -4402,9 +4402,9 @@
       <c r="I87" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J87" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>613</v>
+        <v>1003</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>425</v>
+        <v>1088</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>188</v>
+        <v>-85</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>46</v>
@@ -4447,9 +4447,9 @@
       <c r="I88" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J88" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J88" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>533</v>
+        <v>1137</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>366</v>
+        <v>1088</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>46</v>
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,17 +4516,17 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>533</v>
+        <v>1137</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>366</v>
+        <v>1088</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>46</v>
@@ -4551,7 +4551,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4561,17 +4561,17 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>533</v>
+        <v>1138</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>366</v>
+        <v>1088</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>46</v>
@@ -4596,7 +4596,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4606,17 +4606,17 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>590</v>
+        <v>1195</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>366</v>
+        <v>1088</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>46</v>
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4651,26 +4651,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>590</v>
+        <v>699</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>224</v>
+        <v>-293</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4696,26 +4696,26 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>590</v>
+        <v>749</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>224</v>
+        <v>-243</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>16-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4741,26 +4741,26 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>533</v>
+        <v>797</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>167</v>
+        <v>-195</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>20-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>590</v>
+        <v>1003</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>46</v>
@@ -4807,9 +4807,9 @@
       <c r="I96" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J96" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>20-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>590</v>
+        <v>1003</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>46</v>
@@ -4852,9 +4852,9 @@
       <c r="I97" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4866,7 +4866,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>20-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>590</v>
+        <v>1003</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>46</v>
@@ -4897,9 +4897,9 @@
       <c r="I98" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J98" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>21-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4921,17 +4921,17 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>590</v>
+        <v>1138</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>46</v>
@@ -4956,7 +4956,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>21-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -4966,17 +4966,17 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>590</v>
+        <v>1195</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>366</v>
+        <v>992</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>46</v>
@@ -5001,36 +5001,36 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>21-APR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>590</v>
+        <v>1177</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>366</v>
+        <v>1298</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>224</v>
+        <v>-121</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
@@ -5046,27 +5046,27 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>590</v>
+        <v>1278</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>366</v>
+        <v>1298</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>224</v>
+        <v>-20</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>46</v>
@@ -5077,9 +5077,9 @@
       <c r="I102" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J102" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J102" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
@@ -5091,27 +5091,27 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>590</v>
+        <v>1278</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>366</v>
+        <v>1298</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>224</v>
+        <v>-20</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>46</v>
@@ -5122,9 +5122,9 @@
       <c r="I103" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J103" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J103" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5136,27 +5136,27 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>590</v>
+        <v>1278</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>366</v>
+        <v>1298</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>224</v>
+        <v>-20</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>46</v>
@@ -5167,9 +5167,9 @@
       <c r="I104" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J104" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr">
@@ -5181,27 +5181,27 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-494</t>
+          <t>SM-496</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>590</v>
+        <v>1335</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>366</v>
+        <v>1298</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>46</v>
@@ -5212,9 +5212,9 @@
       <c r="I105" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J105" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,7 +5226,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -5236,17 +5236,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>46</v>
@@ -5271,7 +5271,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -5316,7 +5316,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>27-APR-26</t>
+          <t>15-APR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -5326,17 +5326,17 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>46</v>
@@ -5361,7 +5361,7 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>27-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -5371,17 +5371,17 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>46</v>
@@ -5406,7 +5406,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>27-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -5416,17 +5416,17 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>46</v>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>28-APR-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,17 +5461,17 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>46</v>
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>28-APR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5510,13 +5510,13 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>46</v>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>28-APR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,17 +5551,17 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>46</v>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>29-APR-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>366</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>46</v>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>22-APR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>46</v>
@@ -5662,9 +5662,9 @@
       <c r="I115" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J115" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>46</v>
@@ -5707,9 +5707,9 @@
       <c r="I116" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J116" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>46</v>
@@ -5752,9 +5752,9 @@
       <c r="I117" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J117" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K117" s="2" t="inlineStr">
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>23-APR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,26 +5776,26 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,17 +5821,17 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>46</v>
@@ -5842,9 +5842,9 @@
       <c r="I119" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J119" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J119" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>46</v>
@@ -5887,9 +5887,9 @@
       <c r="I120" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J120" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,26 +5911,26 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,26 +5956,26 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,17 +6001,17 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>668</v>
+        <v>563</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>46</v>
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>46</v>
@@ -6067,9 +6067,9 @@
       <c r="I124" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J124" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>04-MAY-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>46</v>
@@ -6112,9 +6112,9 @@
       <c r="I125" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J125" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>04-MAY-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>46</v>
@@ -6157,9 +6157,9 @@
       <c r="I126" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J126" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>04-MAY-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6181,17 +6181,17 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>46</v>
@@ -6202,9 +6202,9 @@
       <c r="I127" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J127" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6226,17 +6226,17 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>46</v>
@@ -6247,9 +6247,9 @@
       <c r="I128" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J128" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,17 +6271,17 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>46</v>
@@ -6292,9 +6292,9 @@
       <c r="I129" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J129" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6306,7 +6306,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>410</v>
+        <v>679</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-504</v>
+        <v>119</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>30</v>
+        <v>-16</v>
       </c>
       <c r="J130" s="3" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -6361,17 +6361,17 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>799</v>
+        <v>609</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-115</v>
+        <v>49</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>40</v>
@@ -6382,9 +6382,9 @@
       <c r="I131" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J131" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6406,17 +6406,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1138</v>
+        <v>679</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>46</v>
@@ -6441,7 +6441,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -6451,17 +6451,17 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>1138</v>
+        <v>679</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>46</v>
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6496,17 +6496,17 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1138</v>
+        <v>679</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>46</v>
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>26-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6541,30 +6541,30 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-324</v>
+        <v>49</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J135" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,7 +6576,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>26-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -6586,30 +6586,30 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-246</v>
+        <v>89</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J136" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J136" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
@@ -6621,7 +6621,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>26-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -6631,17 +6631,17 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>798</v>
+        <v>679</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-116</v>
+        <v>119</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>46</v>
@@ -6652,9 +6652,9 @@
       <c r="I137" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J137" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J137" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K137" s="2" t="inlineStr">
@@ -6666,7 +6666,7 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>26-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -6676,30 +6676,30 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>799</v>
+        <v>679</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-115</v>
+        <v>119</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J138" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J138" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K138" s="2" t="inlineStr">
@@ -6711,7 +6711,7 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>27-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -6725,13 +6725,13 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-324</v>
+        <v>119</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>46</v>
@@ -6742,9 +6742,9 @@
       <c r="I139" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J139" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J139" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
@@ -6756,7 +6756,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>27-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6766,17 +6766,17 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-324</v>
+        <v>119</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>46</v>
@@ -6787,9 +6787,9 @@
       <c r="I140" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J140" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J140" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>27-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,17 +6811,17 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>914</v>
+        <v>560</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-324</v>
+        <v>119</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>46</v>
@@ -6832,9 +6832,9 @@
       <c r="I141" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J141" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>1298</v>
+        <v>560</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-708</v>
+        <v>119</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>46</v>
@@ -6877,9 +6877,9 @@
       <c r="I142" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J142" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J142" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K142" s="2" t="inlineStr">
@@ -6891,43 +6891,988 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J143" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>756</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J144" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>756</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>-158</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J145" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>756</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>-158</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J146" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>756</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>-158</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J147" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>799</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J148" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-676</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J149" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-694</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-640</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>26-MAY-26</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>-235</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J152" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>26-MAY-26</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>756</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>-158</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J153" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>26-MAY-26</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>799</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J154" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>26-MAY-26</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>885</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>-29</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J155" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>-295</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J156" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>-235</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J157" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-319</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>-235</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J158" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-391</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>914</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>-235</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J159" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
           <t>28-MAY-26</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>SM-494</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-771</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>-679</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J160" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>28-MAY-26</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>Saudia SV-391</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E143" s="2" t="n">
+      <c r="D161" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E161" s="2" t="n">
         <v>1298</v>
       </c>
-      <c r="F143" s="2" t="n">
-        <v>-708</v>
-      </c>
-      <c r="G143" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H143" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I143" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J143" s="5" t="inlineStr">
+      <c r="F161" s="2" t="n">
+        <v>-619</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J161" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K143" s="2" t="inlineStr">
+      <c r="K161" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>28-MAY-26</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-381</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>-619</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J162" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>28-MAY-26</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-793</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>889</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>-409</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J163" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>28-MAY-26</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>SM-494</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-576</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>1079</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>-219</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J164" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_CAI_threats.xlsx
+++ b/excel_routes/route_MED_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E7B9D-1BED-4408-BFEF-3E633A3683E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE5060-B104-4E5C-83F2-F007F083C38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -75,15 +75,15 @@
     <t>SAR</t>
   </si>
   <si>
+    <t>EgyptAir MS-694</t>
+  </si>
+  <si>
     <t>EgyptAir MS-696</t>
   </si>
   <si>
     <t>EgyptAir MS-640</t>
   </si>
   <si>
-    <t>EgyptAir MS-694</t>
-  </si>
-  <si>
     <t>14-FEB-26</t>
   </si>
   <si>
@@ -93,10 +93,16 @@
     <t>flyadeal F3-771</t>
   </si>
   <si>
+    <t>flynas XY-793</t>
+  </si>
+  <si>
     <t>flynas XY-576</t>
   </si>
   <si>
-    <t>flynas XY-793</t>
+    <t>Saudia SV-319</t>
+  </si>
+  <si>
+    <t>Saudia SV-391</t>
   </si>
   <si>
     <t>EgyptAir MS-678</t>
@@ -105,55 +111,145 @@
     <t>15-FEB-26</t>
   </si>
   <si>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
+    <t>17-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-496</t>
+  </si>
+  <si>
+    <t>18-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-954</t>
+  </si>
+  <si>
+    <t>Saudia SV-381</t>
+  </si>
+  <si>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-317</t>
+  </si>
+  <si>
+    <t>20-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-984</t>
+  </si>
+  <si>
+    <t>21-FEB-26</t>
+  </si>
+  <si>
+    <t>22-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>28-FEB-26</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>01-MAR-26</t>
+  </si>
+  <si>
     <t>flyadeal F3-775</t>
   </si>
   <si>
-    <t>16-FEB-26</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-496</t>
-  </si>
-  <si>
-    <t>18-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-954</t>
-  </si>
-  <si>
-    <t>19-FEB-26</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-984</t>
-  </si>
-  <si>
-    <t>21-FEB-26</t>
-  </si>
-  <si>
-    <t>22-FEB-26</t>
-  </si>
-  <si>
-    <t>24-FEB-26</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>01-MAR-26</t>
-  </si>
-  <si>
     <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>07-MAR-26</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>15-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>09-APR-26</t>
+  </si>
+  <si>
+    <t>13-APR-26</t>
+  </si>
+  <si>
+    <t>15-APR-26</t>
+  </si>
+  <si>
+    <t>16-APR-26</t>
+  </si>
+  <si>
+    <t>20-APR-26</t>
+  </si>
+  <si>
+    <t>22-APR-26</t>
+  </si>
+  <si>
+    <t>23-APR-26</t>
+  </si>
+  <si>
+    <t>27-APR-26</t>
+  </si>
+  <si>
+    <t>30-APR-26</t>
+  </si>
+  <si>
+    <t>04-MAY-26</t>
+  </si>
+  <si>
+    <t>11-MAY-26</t>
+  </si>
+  <si>
+    <t>13-MAY-26</t>
+  </si>
+  <si>
+    <t>18-MAY-26</t>
+  </si>
+  <si>
+    <t>19-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>21-MAY-26</t>
+  </si>
+  <si>
+    <t>25-MAY-26</t>
+  </si>
+  <si>
+    <t>26-MAY-26</t>
+  </si>
+  <si>
+    <t>27-MAY-26</t>
+  </si>
+  <si>
+    <t>28-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -180,7 +276,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +299,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF3CD"/>
         <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +347,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +655,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +669,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,10 +722,10 @@
         <v>613</v>
       </c>
       <c r="E2" s="2">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="F2" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
         <v>46</v>
@@ -649,13 +754,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="E3" s="2">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="F3" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
         <v>46</v>
@@ -684,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>798</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="F4" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>46</v>
@@ -719,13 +824,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="E5" s="2">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="F5" s="2">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="G5" s="2">
         <v>46</v>
@@ -754,22 +859,22 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>359</v>
+        <v>537</v>
       </c>
       <c r="E6" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F6" s="2">
-        <v>-261</v>
+        <v>-26</v>
       </c>
       <c r="G6" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -789,22 +894,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>459</v>
+        <v>609</v>
       </c>
       <c r="E7" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F7" s="2">
-        <v>-161</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -821,25 +926,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E8" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F8" s="2">
-        <v>-11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -856,16 +961,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="E9" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F9" s="2">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>46</v>
@@ -891,25 +996,25 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="E10" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F10" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -926,16 +1031,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="E11" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F11" s="2">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2">
         <v>46</v>
@@ -964,13 +1069,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>855</v>
+        <v>756</v>
       </c>
       <c r="E12" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F12" s="2">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2">
         <v>46</v>
@@ -990,31 +1095,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="2">
-        <v>359</v>
+        <v>756</v>
       </c>
       <c r="E13" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F13" s="2">
-        <v>-261</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -1025,31 +1130,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>389</v>
+        <v>760</v>
       </c>
       <c r="E14" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F14" s="2">
-        <v>-231</v>
+        <v>197</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
@@ -1060,31 +1165,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="E15" s="2">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="F15" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
@@ -1095,22 +1200,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="E16" s="2">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="F16" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G16" s="2">
         <v>46</v>
@@ -1130,22 +1235,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="E17" s="2">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="F17" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G17" s="2">
         <v>46</v>
@@ -1165,31 +1270,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="E18" s="2">
         <v>425</v>
       </c>
       <c r="F18" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
@@ -1200,22 +1305,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="E19" s="2">
         <v>425</v>
       </c>
       <c r="F19" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2">
         <v>46</v>
@@ -1238,19 +1343,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>533</v>
       </c>
       <c r="E20" s="2">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F20" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2">
         <v>46</v>
@@ -1273,28 +1378,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="E21" s="2">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F21" s="2">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G21" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>14</v>
@@ -1305,22 +1410,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E22" s="2">
         <v>366</v>
       </c>
       <c r="F22" s="2">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2">
         <v>46</v>
@@ -1340,10 +1445,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -1352,10 +1457,10 @@
         <v>533</v>
       </c>
       <c r="E23" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F23" s="2">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2">
         <v>46</v>
@@ -1375,31 +1480,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E24" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F24" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G24" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2">
         <v>30</v>
       </c>
       <c r="I24" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>14</v>
@@ -1410,22 +1515,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E25" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F25" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" s="2">
         <v>46</v>
@@ -1445,22 +1550,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="E26" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F26" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G26" s="2">
         <v>46</v>
@@ -1480,22 +1585,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2">
         <v>366</v>
       </c>
       <c r="F27" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G27" s="2">
         <v>46</v>
@@ -1515,7 +1620,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>20</v>
@@ -1550,22 +1655,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="E29" s="2">
         <v>366</v>
       </c>
       <c r="F29" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G29" s="2">
         <v>46</v>
@@ -1585,22 +1690,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E30" s="2">
         <v>366</v>
       </c>
       <c r="F30" s="2">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G30" s="2">
         <v>46</v>
@@ -1620,22 +1725,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E31" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F31" s="2">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2">
         <v>46</v>
@@ -1655,31 +1760,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2">
-        <v>613</v>
+        <v>499</v>
       </c>
       <c r="E32" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F32" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>14</v>
@@ -1690,22 +1795,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="E33" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F33" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2">
         <v>46</v>
@@ -1725,22 +1830,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="E34" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F34" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G34" s="2">
         <v>46</v>
@@ -1760,22 +1865,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E35" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F35" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="G35" s="2">
         <v>46</v>
@@ -1795,22 +1900,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
         <v>533</v>
       </c>
       <c r="E36" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F36" s="2">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="G36" s="2">
         <v>46</v>
@@ -1830,31 +1935,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="E37" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="F37" s="2">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="G37" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2">
         <v>30</v>
       </c>
       <c r="I37" s="2">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
@@ -1865,22 +1970,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2">
         <v>425</v>
       </c>
       <c r="F38" s="2">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G38" s="2">
         <v>46</v>
@@ -1900,22 +2005,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="E39" s="2">
         <v>425</v>
       </c>
       <c r="F39" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="G39" s="2">
         <v>46</v>
@@ -1935,31 +2040,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>533</v>
+        <v>689</v>
       </c>
       <c r="E40" s="2">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="F40" s="2">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="G40" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2">
         <v>30</v>
       </c>
       <c r="I40" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>14</v>
@@ -1970,34 +2075,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
-        <v>329</v>
+        <v>798</v>
       </c>
       <c r="E41" s="2">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F41" s="2">
-        <v>-231</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2">
         <v>30</v>
       </c>
       <c r="I41" s="2">
-        <v>15</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>15</v>
@@ -2005,22 +2110,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
         <v>798</v>
       </c>
       <c r="E42" s="2">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F42" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2">
         <v>46</v>
@@ -2031,8 +2136,8 @@
       <c r="I42" s="2">
         <v>-16</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>14</v>
+      <c r="J42" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>15</v>
@@ -2040,22 +2145,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2">
         <v>798</v>
       </c>
       <c r="E43" s="2">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F43" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="G43" s="2">
         <v>46</v>
@@ -2066,8 +2171,8 @@
       <c r="I43" s="2">
         <v>-16</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>14</v>
+      <c r="J43" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>15</v>
@@ -2075,31 +2180,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2">
-        <v>798</v>
+        <v>419</v>
       </c>
       <c r="E44" s="2">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="F44" s="2">
-        <v>238</v>
+        <v>-261</v>
       </c>
       <c r="G44" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
         <v>30</v>
       </c>
       <c r="I44" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>14</v>
@@ -2110,22 +2215,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
         <v>449</v>
       </c>
       <c r="E45" s="2">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="F45" s="2">
-        <v>-309</v>
+        <v>-231</v>
       </c>
       <c r="G45" s="2">
         <v>15</v>
@@ -2145,7 +2250,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
@@ -2157,10 +2262,10 @@
         <v>499</v>
       </c>
       <c r="E46" s="2">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="F46" s="2">
-        <v>-259</v>
+        <v>-181</v>
       </c>
       <c r="G46" s="2">
         <v>20</v>
@@ -2180,31 +2285,31 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2">
-        <v>539</v>
+        <v>893</v>
       </c>
       <c r="E47" s="2">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="F47" s="2">
-        <v>-219</v>
+        <v>213</v>
       </c>
       <c r="G47" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H47" s="2">
         <v>30</v>
       </c>
       <c r="I47" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>14</v>
@@ -2215,7 +2320,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>20</v>
@@ -2227,10 +2332,10 @@
         <v>798</v>
       </c>
       <c r="E48" s="2">
-        <v>758</v>
+        <v>560</v>
       </c>
       <c r="F48" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="G48" s="2">
         <v>46</v>
@@ -2241,8 +2346,8 @@
       <c r="I48" s="2">
         <v>-16</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>40</v>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>15</v>
@@ -2250,22 +2355,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
         <v>798</v>
       </c>
       <c r="E49" s="2">
-        <v>758</v>
+        <v>560</v>
       </c>
       <c r="F49" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="G49" s="2">
         <v>46</v>
@@ -2276,8 +2381,8 @@
       <c r="I49" s="2">
         <v>-16</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>40</v>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>15</v>
@@ -2285,22 +2390,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2">
-        <v>893</v>
+        <v>798</v>
       </c>
       <c r="E50" s="2">
-        <v>758</v>
+        <v>560</v>
       </c>
       <c r="F50" s="2">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="G50" s="2">
         <v>46</v>
@@ -2320,31 +2425,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2">
-        <v>419</v>
+        <v>798</v>
       </c>
       <c r="E51" s="2">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F51" s="2">
-        <v>-261</v>
+        <v>178</v>
       </c>
       <c r="G51" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H51" s="2">
         <v>30</v>
       </c>
       <c r="I51" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>14</v>
@@ -2355,31 +2460,31 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2">
-        <v>499</v>
+        <v>798</v>
       </c>
       <c r="E52" s="2">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F52" s="2">
-        <v>-181</v>
+        <v>178</v>
       </c>
       <c r="G52" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2">
         <v>30</v>
       </c>
       <c r="I52" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>14</v>
@@ -2390,22 +2495,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2">
-        <v>893</v>
+        <v>798</v>
       </c>
       <c r="E53" s="2">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="F53" s="2">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="G53" s="2">
         <v>46</v>
@@ -2425,31 +2530,31 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2">
-        <v>798</v>
+        <v>567</v>
       </c>
       <c r="E54" s="2">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F54" s="2">
-        <v>238</v>
+        <v>-53</v>
       </c>
       <c r="G54" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2">
         <v>30</v>
       </c>
       <c r="I54" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>14</v>
@@ -2460,22 +2565,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2">
         <v>798</v>
       </c>
       <c r="E55" s="2">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F55" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G55" s="2">
         <v>46</v>
@@ -2495,7 +2600,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>20</v>
@@ -2507,10 +2612,10 @@
         <v>798</v>
       </c>
       <c r="E56" s="2">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F56" s="2">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G56" s="2">
         <v>46</v>
@@ -2530,31 +2635,31 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2">
-        <v>594</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2">
         <v>620</v>
       </c>
       <c r="F57" s="2">
-        <v>-26</v>
+        <v>178</v>
       </c>
       <c r="G57" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2">
         <v>30</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>14</v>
@@ -2565,31 +2670,31 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="E58" s="2">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F58" s="2">
-        <v>178</v>
+        <v>-181</v>
       </c>
       <c r="G58" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2">
         <v>30</v>
       </c>
       <c r="I58" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>14</v>
@@ -2600,31 +2705,31 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="E59" s="2">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F59" s="2">
-        <v>178</v>
+        <v>-181</v>
       </c>
       <c r="G59" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H59" s="2">
         <v>30</v>
       </c>
       <c r="I59" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>14</v>
@@ -2635,36 +2740,3676 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2">
         <v>798</v>
       </c>
       <c r="E60" s="2">
+        <v>680</v>
+      </c>
+      <c r="F60" s="2">
+        <v>118</v>
+      </c>
+      <c r="G60" s="2">
+        <v>46</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2">
+        <v>798</v>
+      </c>
+      <c r="E61" s="2">
+        <v>680</v>
+      </c>
+      <c r="F61" s="2">
+        <v>118</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" s="2">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2">
+        <v>798</v>
+      </c>
+      <c r="E62" s="2">
+        <v>680</v>
+      </c>
+      <c r="F62" s="2">
+        <v>118</v>
+      </c>
+      <c r="G62" s="2">
+        <v>46</v>
+      </c>
+      <c r="H62" s="2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2">
+        <v>799</v>
+      </c>
+      <c r="E63" s="2">
+        <v>680</v>
+      </c>
+      <c r="F63" s="2">
+        <v>119</v>
+      </c>
+      <c r="G63" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" s="2">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2">
+        <v>893</v>
+      </c>
+      <c r="E64" s="2">
+        <v>680</v>
+      </c>
+      <c r="F64" s="2">
+        <v>213</v>
+      </c>
+      <c r="G64" s="2">
+        <v>46</v>
+      </c>
+      <c r="H64" s="2">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2">
+        <v>597</v>
+      </c>
+      <c r="E65" s="2">
+        <v>680</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-83</v>
+      </c>
+      <c r="G65" s="2">
+        <v>30</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2">
+        <v>627</v>
+      </c>
+      <c r="E66" s="2">
+        <v>680</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-53</v>
+      </c>
+      <c r="G66" s="2">
+        <v>30</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2">
+        <v>779</v>
+      </c>
+      <c r="E67" s="2">
+        <v>680</v>
+      </c>
+      <c r="F67" s="2">
+        <v>99</v>
+      </c>
+      <c r="G67" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
+        <v>798</v>
+      </c>
+      <c r="E68" s="2">
+        <v>680</v>
+      </c>
+      <c r="F68" s="2">
+        <v>118</v>
+      </c>
+      <c r="G68" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2">
+        <v>798</v>
+      </c>
+      <c r="E69" s="2">
+        <v>680</v>
+      </c>
+      <c r="F69" s="2">
+        <v>118</v>
+      </c>
+      <c r="G69" s="2">
+        <v>46</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2">
+        <v>798</v>
+      </c>
+      <c r="E70" s="2">
+        <v>680</v>
+      </c>
+      <c r="F70" s="2">
+        <v>118</v>
+      </c>
+      <c r="G70" s="2">
+        <v>46</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2">
+        <v>893</v>
+      </c>
+      <c r="E71" s="2">
+        <v>680</v>
+      </c>
+      <c r="F71" s="2">
+        <v>213</v>
+      </c>
+      <c r="G71" s="2">
+        <v>46</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2">
+        <v>389</v>
+      </c>
+      <c r="E72" s="2">
         <v>620</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F72" s="2">
+        <v>-231</v>
+      </c>
+      <c r="G72" s="2">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>798</v>
+      </c>
+      <c r="E73" s="2">
+        <v>620</v>
+      </c>
+      <c r="F73" s="2">
         <v>178</v>
       </c>
-      <c r="G60" s="2">
-        <v>46</v>
-      </c>
-      <c r="H60" s="2">
-        <v>30</v>
-      </c>
-      <c r="I60" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="G73" s="2">
+        <v>46</v>
+      </c>
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2">
+        <v>798</v>
+      </c>
+      <c r="E74" s="2">
+        <v>620</v>
+      </c>
+      <c r="F74" s="2">
+        <v>178</v>
+      </c>
+      <c r="G74" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" s="2">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2">
+        <v>798</v>
+      </c>
+      <c r="E75" s="2">
+        <v>620</v>
+      </c>
+      <c r="F75" s="2">
+        <v>178</v>
+      </c>
+      <c r="G75" s="2">
+        <v>46</v>
+      </c>
+      <c r="H75" s="2">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="2">
+        <v>389</v>
+      </c>
+      <c r="E76" s="2">
+        <v>680</v>
+      </c>
+      <c r="F76" s="2">
+        <v>-291</v>
+      </c>
+      <c r="G76" s="2">
+        <v>15</v>
+      </c>
+      <c r="H76" s="2">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2">
+        <v>798</v>
+      </c>
+      <c r="E77" s="2">
+        <v>680</v>
+      </c>
+      <c r="F77" s="2">
+        <v>118</v>
+      </c>
+      <c r="G77" s="2">
+        <v>46</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2">
+        <v>798</v>
+      </c>
+      <c r="E78" s="2">
+        <v>680</v>
+      </c>
+      <c r="F78" s="2">
+        <v>118</v>
+      </c>
+      <c r="G78" s="2">
+        <v>46</v>
+      </c>
+      <c r="H78" s="2">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2">
+        <v>798</v>
+      </c>
+      <c r="E79" s="2">
+        <v>680</v>
+      </c>
+      <c r="F79" s="2">
+        <v>118</v>
+      </c>
+      <c r="G79" s="2">
+        <v>46</v>
+      </c>
+      <c r="H79" s="2">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2">
+        <v>893</v>
+      </c>
+      <c r="E80" s="2">
+        <v>680</v>
+      </c>
+      <c r="F80" s="2">
+        <v>213</v>
+      </c>
+      <c r="G80" s="2">
+        <v>46</v>
+      </c>
+      <c r="H80" s="2">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2">
+        <v>449</v>
+      </c>
+      <c r="E81" s="2">
+        <v>758</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-309</v>
+      </c>
+      <c r="G81" s="2">
+        <v>15</v>
+      </c>
+      <c r="H81" s="2">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2">
+        <v>15</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2">
+        <v>589</v>
+      </c>
+      <c r="E82" s="2">
+        <v>758</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-169</v>
+      </c>
+      <c r="G82" s="2">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2">
+        <v>10</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2">
+        <v>779</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F83" s="2">
+        <v>-309</v>
+      </c>
+      <c r="G83" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" s="2">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2">
+        <v>799</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F84" s="2">
+        <v>-289</v>
+      </c>
+      <c r="G84" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2">
+        <v>829</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F85" s="2">
+        <v>-259</v>
+      </c>
+      <c r="G85" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G86" s="2">
+        <v>46</v>
+      </c>
+      <c r="H86" s="2">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G87" s="2">
+        <v>46</v>
+      </c>
+      <c r="H87" s="2">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F88" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G88" s="2">
+        <v>46</v>
+      </c>
+      <c r="H88" s="2">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1137</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F89" s="2">
+        <v>49</v>
+      </c>
+      <c r="G89" s="2">
+        <v>46</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1137</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F90" s="2">
+        <v>49</v>
+      </c>
+      <c r="G90" s="2">
+        <v>46</v>
+      </c>
+      <c r="H90" s="2">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1138</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F91" s="2">
+        <v>50</v>
+      </c>
+      <c r="G91" s="2">
+        <v>46</v>
+      </c>
+      <c r="H91" s="2">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1195</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F92" s="2">
+        <v>107</v>
+      </c>
+      <c r="G92" s="2">
+        <v>46</v>
+      </c>
+      <c r="H92" s="2">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2">
+        <v>699</v>
+      </c>
+      <c r="E93" s="2">
+        <v>992</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-293</v>
+      </c>
+      <c r="G93" s="2">
+        <v>15</v>
+      </c>
+      <c r="H93" s="2">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2">
+        <v>15</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2">
+        <v>749</v>
+      </c>
+      <c r="E94" s="2">
+        <v>992</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-243</v>
+      </c>
+      <c r="G94" s="2">
+        <v>20</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2">
+        <v>797</v>
+      </c>
+      <c r="E95" s="2">
+        <v>992</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-195</v>
+      </c>
+      <c r="G95" s="2">
+        <v>30</v>
+      </c>
+      <c r="H95" s="2">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E96" s="2">
+        <v>992</v>
+      </c>
+      <c r="F96" s="2">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>46</v>
+      </c>
+      <c r="H96" s="2">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E97" s="2">
+        <v>992</v>
+      </c>
+      <c r="F97" s="2">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2">
+        <v>46</v>
+      </c>
+      <c r="H97" s="2">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E98" s="2">
+        <v>992</v>
+      </c>
+      <c r="F98" s="2">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2">
+        <v>46</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1138</v>
+      </c>
+      <c r="E99" s="2">
+        <v>992</v>
+      </c>
+      <c r="F99" s="2">
+        <v>146</v>
+      </c>
+      <c r="G99" s="2">
+        <v>46</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1195</v>
+      </c>
+      <c r="E100" s="2">
+        <v>992</v>
+      </c>
+      <c r="F100" s="2">
+        <v>203</v>
+      </c>
+      <c r="G100" s="2">
+        <v>46</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1177</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-121</v>
+      </c>
+      <c r="G101" s="2">
+        <v>30</v>
+      </c>
+      <c r="H101" s="2">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G102" s="2">
+        <v>46</v>
+      </c>
+      <c r="H102" s="2">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G103" s="2">
+        <v>46</v>
+      </c>
+      <c r="H103" s="2">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F104" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G104" s="2">
+        <v>46</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1335</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F105" s="2">
+        <v>37</v>
+      </c>
+      <c r="G105" s="2">
+        <v>46</v>
+      </c>
+      <c r="H105" s="2">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2">
+        <v>533</v>
+      </c>
+      <c r="E106" s="2">
+        <v>425</v>
+      </c>
+      <c r="F106" s="2">
+        <v>108</v>
+      </c>
+      <c r="G106" s="2">
+        <v>46</v>
+      </c>
+      <c r="H106" s="2">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="2">
+        <v>590</v>
+      </c>
+      <c r="E107" s="2">
+        <v>366</v>
+      </c>
+      <c r="F107" s="2">
+        <v>224</v>
+      </c>
+      <c r="G107" s="2">
+        <v>46</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2">
+        <v>533</v>
+      </c>
+      <c r="E108" s="2">
+        <v>366</v>
+      </c>
+      <c r="F108" s="2">
+        <v>167</v>
+      </c>
+      <c r="G108" s="2">
+        <v>46</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2">
+        <v>533</v>
+      </c>
+      <c r="E109" s="2">
+        <v>366</v>
+      </c>
+      <c r="F109" s="2">
+        <v>167</v>
+      </c>
+      <c r="G109" s="2">
+        <v>46</v>
+      </c>
+      <c r="H109" s="2">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="2">
+        <v>563</v>
+      </c>
+      <c r="E110" s="2">
+        <v>366</v>
+      </c>
+      <c r="F110" s="2">
+        <v>197</v>
+      </c>
+      <c r="G110" s="2">
+        <v>46</v>
+      </c>
+      <c r="H110" s="2">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2">
+        <v>563</v>
+      </c>
+      <c r="E111" s="2">
+        <v>366</v>
+      </c>
+      <c r="F111" s="2">
+        <v>197</v>
+      </c>
+      <c r="G111" s="2">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="2">
+        <v>563</v>
+      </c>
+      <c r="E112" s="2">
+        <v>366</v>
+      </c>
+      <c r="F112" s="2">
+        <v>197</v>
+      </c>
+      <c r="G112" s="2">
+        <v>46</v>
+      </c>
+      <c r="H112" s="2">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2">
+        <v>563</v>
+      </c>
+      <c r="E113" s="2">
+        <v>366</v>
+      </c>
+      <c r="F113" s="2">
+        <v>197</v>
+      </c>
+      <c r="G113" s="2">
+        <v>46</v>
+      </c>
+      <c r="H113" s="2">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="2">
+        <v>563</v>
+      </c>
+      <c r="E114" s="2">
+        <v>366</v>
+      </c>
+      <c r="F114" s="2">
+        <v>197</v>
+      </c>
+      <c r="G114" s="2">
+        <v>46</v>
+      </c>
+      <c r="H114" s="2">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2">
+        <v>563</v>
+      </c>
+      <c r="E115" s="2">
+        <v>366</v>
+      </c>
+      <c r="F115" s="2">
+        <v>197</v>
+      </c>
+      <c r="G115" s="2">
+        <v>46</v>
+      </c>
+      <c r="H115" s="2">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2">
+        <v>563</v>
+      </c>
+      <c r="E116" s="2">
+        <v>366</v>
+      </c>
+      <c r="F116" s="2">
+        <v>197</v>
+      </c>
+      <c r="G116" s="2">
+        <v>46</v>
+      </c>
+      <c r="H116" s="2">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="2">
+        <v>563</v>
+      </c>
+      <c r="E117" s="2">
+        <v>366</v>
+      </c>
+      <c r="F117" s="2">
+        <v>197</v>
+      </c>
+      <c r="G117" s="2">
+        <v>46</v>
+      </c>
+      <c r="H117" s="2">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2">
+        <v>563</v>
+      </c>
+      <c r="E118" s="2">
+        <v>366</v>
+      </c>
+      <c r="F118" s="2">
+        <v>197</v>
+      </c>
+      <c r="G118" s="2">
+        <v>46</v>
+      </c>
+      <c r="H118" s="2">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2">
+        <v>563</v>
+      </c>
+      <c r="E119" s="2">
+        <v>366</v>
+      </c>
+      <c r="F119" s="2">
+        <v>197</v>
+      </c>
+      <c r="G119" s="2">
+        <v>46</v>
+      </c>
+      <c r="H119" s="2">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="2">
+        <v>563</v>
+      </c>
+      <c r="E120" s="2">
+        <v>366</v>
+      </c>
+      <c r="F120" s="2">
+        <v>197</v>
+      </c>
+      <c r="G120" s="2">
+        <v>46</v>
+      </c>
+      <c r="H120" s="2">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2">
+        <v>563</v>
+      </c>
+      <c r="E121" s="2">
+        <v>366</v>
+      </c>
+      <c r="F121" s="2">
+        <v>197</v>
+      </c>
+      <c r="G121" s="2">
+        <v>46</v>
+      </c>
+      <c r="H121" s="2">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="2">
+        <v>563</v>
+      </c>
+      <c r="E122" s="2">
+        <v>366</v>
+      </c>
+      <c r="F122" s="2">
+        <v>197</v>
+      </c>
+      <c r="G122" s="2">
+        <v>46</v>
+      </c>
+      <c r="H122" s="2">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="2">
+        <v>563</v>
+      </c>
+      <c r="E123" s="2">
+        <v>366</v>
+      </c>
+      <c r="F123" s="2">
+        <v>197</v>
+      </c>
+      <c r="G123" s="2">
+        <v>46</v>
+      </c>
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2">
+        <v>563</v>
+      </c>
+      <c r="E124" s="2">
+        <v>366</v>
+      </c>
+      <c r="F124" s="2">
+        <v>197</v>
+      </c>
+      <c r="G124" s="2">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="2">
+        <v>563</v>
+      </c>
+      <c r="E125" s="2">
+        <v>366</v>
+      </c>
+      <c r="F125" s="2">
+        <v>197</v>
+      </c>
+      <c r="G125" s="2">
+        <v>46</v>
+      </c>
+      <c r="H125" s="2">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="2">
+        <v>563</v>
+      </c>
+      <c r="E126" s="2">
+        <v>366</v>
+      </c>
+      <c r="F126" s="2">
+        <v>197</v>
+      </c>
+      <c r="G126" s="2">
+        <v>46</v>
+      </c>
+      <c r="H126" s="2">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2">
+        <v>563</v>
+      </c>
+      <c r="E127" s="2">
+        <v>366</v>
+      </c>
+      <c r="F127" s="2">
+        <v>197</v>
+      </c>
+      <c r="G127" s="2">
+        <v>46</v>
+      </c>
+      <c r="H127" s="2">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="2">
+        <v>679</v>
+      </c>
+      <c r="E128" s="2">
+        <v>560</v>
+      </c>
+      <c r="F128" s="2">
+        <v>119</v>
+      </c>
+      <c r="G128" s="2">
+        <v>46</v>
+      </c>
+      <c r="H128" s="2">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="2">
+        <v>679</v>
+      </c>
+      <c r="E129" s="2">
+        <v>560</v>
+      </c>
+      <c r="F129" s="2">
+        <v>119</v>
+      </c>
+      <c r="G129" s="2">
+        <v>46</v>
+      </c>
+      <c r="H129" s="2">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2">
+        <v>679</v>
+      </c>
+      <c r="E130" s="2">
+        <v>560</v>
+      </c>
+      <c r="F130" s="2">
+        <v>119</v>
+      </c>
+      <c r="G130" s="2">
+        <v>46</v>
+      </c>
+      <c r="H130" s="2">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="2">
+        <v>609</v>
+      </c>
+      <c r="E131" s="2">
+        <v>560</v>
+      </c>
+      <c r="F131" s="2">
+        <v>49</v>
+      </c>
+      <c r="G131" s="2">
+        <v>40</v>
+      </c>
+      <c r="H131" s="2">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="2">
+        <v>679</v>
+      </c>
+      <c r="E132" s="2">
+        <v>560</v>
+      </c>
+      <c r="F132" s="2">
+        <v>119</v>
+      </c>
+      <c r="G132" s="2">
+        <v>46</v>
+      </c>
+      <c r="H132" s="2">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="2">
+        <v>679</v>
+      </c>
+      <c r="E133" s="2">
+        <v>560</v>
+      </c>
+      <c r="F133" s="2">
+        <v>119</v>
+      </c>
+      <c r="G133" s="2">
+        <v>46</v>
+      </c>
+      <c r="H133" s="2">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="2">
+        <v>679</v>
+      </c>
+      <c r="E134" s="2">
+        <v>560</v>
+      </c>
+      <c r="F134" s="2">
+        <v>119</v>
+      </c>
+      <c r="G134" s="2">
+        <v>46</v>
+      </c>
+      <c r="H134" s="2">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="2">
+        <v>609</v>
+      </c>
+      <c r="E135" s="2">
+        <v>560</v>
+      </c>
+      <c r="F135" s="2">
+        <v>49</v>
+      </c>
+      <c r="G135" s="2">
+        <v>40</v>
+      </c>
+      <c r="H135" s="2">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="2">
+        <v>649</v>
+      </c>
+      <c r="E136" s="2">
+        <v>560</v>
+      </c>
+      <c r="F136" s="2">
+        <v>89</v>
+      </c>
+      <c r="G136" s="2">
+        <v>40</v>
+      </c>
+      <c r="H136" s="2">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="2">
+        <v>679</v>
+      </c>
+      <c r="E137" s="2">
+        <v>560</v>
+      </c>
+      <c r="F137" s="2">
+        <v>119</v>
+      </c>
+      <c r="G137" s="2">
+        <v>46</v>
+      </c>
+      <c r="H137" s="2">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2">
+        <v>679</v>
+      </c>
+      <c r="E138" s="2">
+        <v>560</v>
+      </c>
+      <c r="F138" s="2">
+        <v>119</v>
+      </c>
+      <c r="G138" s="2">
+        <v>46</v>
+      </c>
+      <c r="H138" s="2">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="2">
+        <v>679</v>
+      </c>
+      <c r="E139" s="2">
+        <v>560</v>
+      </c>
+      <c r="F139" s="2">
+        <v>119</v>
+      </c>
+      <c r="G139" s="2">
+        <v>46</v>
+      </c>
+      <c r="H139" s="2">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="2">
+        <v>679</v>
+      </c>
+      <c r="E140" s="2">
+        <v>560</v>
+      </c>
+      <c r="F140" s="2">
+        <v>119</v>
+      </c>
+      <c r="G140" s="2">
+        <v>46</v>
+      </c>
+      <c r="H140" s="2">
+        <v>30</v>
+      </c>
+      <c r="I140" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="2">
+        <v>679</v>
+      </c>
+      <c r="E141" s="2">
+        <v>560</v>
+      </c>
+      <c r="F141" s="2">
+        <v>119</v>
+      </c>
+      <c r="G141" s="2">
+        <v>46</v>
+      </c>
+      <c r="H141" s="2">
+        <v>30</v>
+      </c>
+      <c r="I141" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2">
+        <v>679</v>
+      </c>
+      <c r="E142" s="2">
+        <v>560</v>
+      </c>
+      <c r="F142" s="2">
+        <v>119</v>
+      </c>
+      <c r="G142" s="2">
+        <v>46</v>
+      </c>
+      <c r="H142" s="2">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2">
+        <v>679</v>
+      </c>
+      <c r="E143" s="2">
+        <v>560</v>
+      </c>
+      <c r="F143" s="2">
+        <v>119</v>
+      </c>
+      <c r="G143" s="2">
+        <v>46</v>
+      </c>
+      <c r="H143" s="2">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="2">
+        <v>756</v>
+      </c>
+      <c r="E144" s="2">
+        <v>560</v>
+      </c>
+      <c r="F144" s="2">
+        <v>196</v>
+      </c>
+      <c r="G144" s="2">
+        <v>46</v>
+      </c>
+      <c r="H144" s="2">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="2">
+        <v>756</v>
+      </c>
+      <c r="E145" s="2">
+        <v>914</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-158</v>
+      </c>
+      <c r="G145" s="2">
+        <v>46</v>
+      </c>
+      <c r="H145" s="2">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="2">
+        <v>756</v>
+      </c>
+      <c r="E146" s="2">
+        <v>914</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-158</v>
+      </c>
+      <c r="G146" s="2">
+        <v>46</v>
+      </c>
+      <c r="H146" s="2">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2">
+        <v>756</v>
+      </c>
+      <c r="E147" s="2">
+        <v>914</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-158</v>
+      </c>
+      <c r="G147" s="2">
+        <v>46</v>
+      </c>
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="2">
+        <v>799</v>
+      </c>
+      <c r="E148" s="2">
+        <v>914</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-115</v>
+      </c>
+      <c r="G148" s="2">
+        <v>40</v>
+      </c>
+      <c r="H148" s="2">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1138</v>
+      </c>
+      <c r="E149" s="2">
+        <v>914</v>
+      </c>
+      <c r="F149" s="2">
+        <v>224</v>
+      </c>
+      <c r="G149" s="2">
+        <v>46</v>
+      </c>
+      <c r="H149" s="2">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1138</v>
+      </c>
+      <c r="E150" s="2">
+        <v>914</v>
+      </c>
+      <c r="F150" s="2">
+        <v>224</v>
+      </c>
+      <c r="G150" s="2">
+        <v>46</v>
+      </c>
+      <c r="H150" s="2">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1138</v>
+      </c>
+      <c r="E151" s="2">
+        <v>914</v>
+      </c>
+      <c r="F151" s="2">
+        <v>224</v>
+      </c>
+      <c r="G151" s="2">
+        <v>46</v>
+      </c>
+      <c r="H151" s="2">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" s="2">
+        <v>679</v>
+      </c>
+      <c r="E152" s="2">
+        <v>914</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G152" s="2">
+        <v>46</v>
+      </c>
+      <c r="H152" s="2">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="2">
+        <v>756</v>
+      </c>
+      <c r="E153" s="2">
+        <v>914</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-158</v>
+      </c>
+      <c r="G153" s="2">
+        <v>46</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="2">
+        <v>799</v>
+      </c>
+      <c r="E154" s="2">
+        <v>914</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-115</v>
+      </c>
+      <c r="G154" s="2">
+        <v>40</v>
+      </c>
+      <c r="H154" s="2">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2">
+        <v>885</v>
+      </c>
+      <c r="E155" s="2">
+        <v>914</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G155" s="2">
+        <v>46</v>
+      </c>
+      <c r="H155" s="2">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="2">
+        <v>619</v>
+      </c>
+      <c r="E156" s="2">
+        <v>914</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-295</v>
+      </c>
+      <c r="G156" s="2">
+        <v>15</v>
+      </c>
+      <c r="H156" s="2">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2">
+        <v>15</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="2">
+        <v>679</v>
+      </c>
+      <c r="E157" s="2">
+        <v>914</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G157" s="2">
+        <v>46</v>
+      </c>
+      <c r="H157" s="2">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="2">
+        <v>679</v>
+      </c>
+      <c r="E158" s="2">
+        <v>914</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G158" s="2">
+        <v>46</v>
+      </c>
+      <c r="H158" s="2">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2">
+        <v>679</v>
+      </c>
+      <c r="E159" s="2">
+        <v>914</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G159" s="2">
+        <v>46</v>
+      </c>
+      <c r="H159" s="2">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="2">
+        <v>619</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-679</v>
+      </c>
+      <c r="G160" s="2">
+        <v>15</v>
+      </c>
+      <c r="H160" s="2">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2">
+        <v>15</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2">
+        <v>679</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-619</v>
+      </c>
+      <c r="G161" s="2">
+        <v>46</v>
+      </c>
+      <c r="H161" s="2">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="2">
+        <v>679</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-619</v>
+      </c>
+      <c r="G162" s="2">
+        <v>46</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="2">
+        <v>889</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-409</v>
+      </c>
+      <c r="G163" s="2">
+        <v>20</v>
+      </c>
+      <c r="H163" s="2">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2">
+        <v>10</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1079</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-219</v>
+      </c>
+      <c r="G164" s="2">
+        <v>40</v>
+      </c>
+      <c r="H164" s="2">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K164" s="2" t="s">
         <v>15</v>
       </c>
     </row>
